--- a/testData/UserData.xlsx
+++ b/testData/UserData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshaykumar/Desktop/Automation/PetStoreAutomation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E30722-12C3-FF43-93C6-43C0C6B2C1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35A1D1-7AEE-3F4F-8209-831947DAF0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{405675C8-935E-814D-B87C-0D8E4F463F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>UserID</t>
   </si>
@@ -102,13 +102,113 @@
   </si>
   <si>
     <t>test@2</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Http Request Type</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Request Body</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>https://petstore.swagger.io/v2/user</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>CREATE USER</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>{
+  "id": 0,
+  "username": "string",
+  "firstName": "string",
+  "lastName": "string",
+  "email": "string",
+  "password": "string",
+  "phone": "string",
+  "userStatus": 0
+}</t>
+  </si>
+  <si>
+    <t>successful operation</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>GET USER</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>https://petstore.swagger.io/v2/user/{username}</t>
+  </si>
+  <si>
+    <t>path param{username}</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>{
+  "code": 200,
+  "type": "unknown",
+  "message": "9223372036854775807"
+}</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>DELETE USER</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +220,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,17 +275,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D095B9-CBBF-5340-95B7-E35F1063C06E}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,13 +652,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1011</v>
+        <v>10111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -553,7 +681,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>1012</v>
+        <v>10122</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -576,7 +704,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1013</v>
+        <v>10133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -596,9 +724,6 @@
       <c r="G4" s="3">
         <v>12323</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -615,12 +740,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8B59AA-F4E9-5D43-A878-C1F207286EE0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4B72C6E7-607E-F945-B60F-4A4B996450AF}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4964090B-E890-EC45-9717-B6EA5BF52FB1}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{D1EA8F72-1F00-0E4D-AFFD-0CC1D294102F}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{1382E5D7-EE0F-1A4A-B2A2-52ACD050061E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>